--- a/data/IKPA_AGUSTUS_2025.xlsx
+++ b/data/IKPA_AGUSTUS_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,20 +559,31 @@
           <t>Source</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Jenis Satker</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Total Pagu</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Tanggal Posting Revisi</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B2" t="n">
+        <v>109</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -654,20 +665,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="B3" t="n">
+        <v>109</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,20 +759,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="B4" t="n">
+        <v>109</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,20 +853,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="B5" t="n">
+        <v>109</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,20 +947,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="B6" t="n">
+        <v>109</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,20 +1041,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B7" t="n">
+        <v>109</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,20 +1135,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="B8" t="n">
+        <v>109</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,20 +1229,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>9</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
+      <c r="B9" t="n">
+        <v>109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,20 +1323,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+      <c r="B10" t="n">
+        <v>109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>137</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,20 +1417,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>060</t>
-        </is>
+      <c r="B11" t="n">
+        <v>109</v>
+      </c>
+      <c r="C11" t="n">
+        <v>60</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1509,20 +1511,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
+      <c r="B12" t="n">
+        <v>109</v>
+      </c>
+      <c r="C12" t="n">
+        <v>54</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,20 +1605,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
+      <c r="B13" t="n">
+        <v>109</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,20 +1699,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
+      <c r="B14" t="n">
+        <v>109</v>
+      </c>
+      <c r="C14" t="n">
+        <v>54</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,20 +1793,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
+      <c r="B15" t="n">
+        <v>109</v>
+      </c>
+      <c r="C15" t="n">
+        <v>54</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,20 +1887,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>060</t>
-        </is>
+      <c r="B16" t="n">
+        <v>109</v>
+      </c>
+      <c r="C16" t="n">
+        <v>60</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1984,20 +1981,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B17" t="n">
+        <v>109</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,20 +2075,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="B18" t="n">
+        <v>109</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,20 +2169,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B19" t="n">
+        <v>109</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2269,20 +2263,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+      <c r="B20" t="n">
+        <v>109</v>
+      </c>
+      <c r="C20" t="n">
+        <v>137</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2364,20 +2357,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B21" t="n">
+        <v>109</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2459,20 +2451,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B22" t="n">
+        <v>109</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2554,20 +2545,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B23" t="n">
+        <v>109</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2649,24 +2639,23 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
+      <c r="B24" t="n">
+        <v>109</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>'007130</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2744,20 +2733,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>012</t>
-        </is>
+      <c r="B25" t="n">
+        <v>109</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,24 +2827,23 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
+      <c r="B26" t="n">
+        <v>109</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>'007190</t>
+          <t>007190</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2934,20 +2921,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B27" t="n">
+        <v>109</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3029,24 +3015,23 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="B28" t="n">
+        <v>109</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>'098963</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3124,20 +3109,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>056</t>
-        </is>
+      <c r="B29" t="n">
+        <v>109</v>
+      </c>
+      <c r="C29" t="n">
+        <v>56</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3219,20 +3203,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B30" t="n">
+        <v>109</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3314,20 +3297,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>056</t>
-        </is>
+      <c r="B31" t="n">
+        <v>109</v>
+      </c>
+      <c r="C31" t="n">
+        <v>56</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,20 +3391,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>060</t>
-        </is>
+      <c r="B32" t="n">
+        <v>109</v>
+      </c>
+      <c r="C32" t="n">
+        <v>60</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3504,20 +3485,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
+      <c r="B33" t="n">
+        <v>109</v>
+      </c>
+      <c r="C33" t="n">
+        <v>76</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,20 +3579,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B34" t="n">
+        <v>109</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3694,20 +3673,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B35" t="n">
+        <v>109</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3789,20 +3767,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+      <c r="B36" t="n">
+        <v>109</v>
+      </c>
+      <c r="C36" t="n">
+        <v>137</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3884,20 +3861,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
+      <c r="B37" t="n">
+        <v>109</v>
+      </c>
+      <c r="C37" t="n">
+        <v>76</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3979,20 +3955,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B38" t="n">
+        <v>109</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4074,20 +4049,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B39" t="n">
+        <v>109</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4169,20 +4143,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+      <c r="B40" t="n">
+        <v>109</v>
+      </c>
+      <c r="C40" t="n">
+        <v>137</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4264,20 +4237,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B41" t="n">
+        <v>109</v>
+      </c>
+      <c r="C41" t="n">
+        <v>25</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4359,20 +4331,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B42" t="n">
+        <v>109</v>
+      </c>
+      <c r="C42" t="n">
+        <v>25</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4454,20 +4425,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
+      <c r="B43" t="n">
+        <v>109</v>
+      </c>
+      <c r="C43" t="n">
+        <v>76</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4549,20 +4519,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B44" t="n">
+        <v>109</v>
+      </c>
+      <c r="C44" t="n">
+        <v>25</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4644,20 +4613,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B45" t="n">
+        <v>109</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4739,24 +4707,23 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
+      <c r="B46" t="n">
+        <v>109</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>'007208</t>
+          <t>007208</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4834,20 +4801,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>056</t>
-        </is>
+      <c r="B47" t="n">
+        <v>109</v>
+      </c>
+      <c r="C47" t="n">
+        <v>56</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4929,20 +4895,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
+      <c r="B48" t="n">
+        <v>109</v>
+      </c>
+      <c r="C48" t="n">
+        <v>115</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5024,20 +4989,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>012</t>
-        </is>
+      <c r="B49" t="n">
+        <v>109</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5119,20 +5083,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B50" t="n">
+        <v>109</v>
+      </c>
+      <c r="C50" t="n">
+        <v>25</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5214,20 +5177,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B51" t="n">
+        <v>109</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5309,20 +5271,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+      <c r="B52" t="n">
+        <v>109</v>
+      </c>
+      <c r="C52" t="n">
+        <v>137</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5404,20 +5365,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B53" t="n">
+        <v>109</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5499,20 +5459,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B54" t="n">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5594,20 +5553,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B55" t="n">
+        <v>109</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5689,20 +5647,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B56" t="n">
+        <v>109</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5784,20 +5741,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B57" t="n">
+        <v>109</v>
+      </c>
+      <c r="C57" t="n">
+        <v>25</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5879,20 +5835,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>066</t>
-        </is>
+      <c r="B58" t="n">
+        <v>109</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5974,20 +5929,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B59" t="n">
+        <v>109</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6069,20 +6023,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B60" t="n">
+        <v>109</v>
+      </c>
+      <c r="C60" t="n">
+        <v>25</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6164,20 +6117,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
+      <c r="B61" t="n">
+        <v>109</v>
+      </c>
+      <c r="C61" t="n">
+        <v>115</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6259,20 +6211,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>024</t>
-        </is>
+      <c r="B62" t="n">
+        <v>109</v>
+      </c>
+      <c r="C62" t="n">
+        <v>24</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6354,20 +6305,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B63" t="n">
+        <v>109</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6449,24 +6399,23 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="B64" t="n">
+        <v>109</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>'099228</t>
+          <t>099228</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -6544,20 +6493,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B65" t="n">
+        <v>109</v>
+      </c>
+      <c r="C65" t="n">
+        <v>25</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6639,20 +6587,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B66" t="n">
+        <v>109</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6734,20 +6681,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B67" t="n">
+        <v>109</v>
+      </c>
+      <c r="C67" t="n">
+        <v>25</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6829,20 +6775,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B68" t="n">
+        <v>109</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6924,20 +6869,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
+      <c r="B69" t="n">
+        <v>109</v>
+      </c>
+      <c r="C69" t="n">
+        <v>152</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7019,6 +6963,9 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
